--- a/src/main/resources/profile2/Table1.xlsx
+++ b/src/main/resources/profile2/Table1.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/apps/Intellij-projects/widequery-example-repo/src/main/resources/profile2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC959CB-3CC2-7848-9455-7B8253A88AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C707EE99-42C0-4647-A9A6-0C69E4D8A6EB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="2700" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{B070CAB0-29B0-1E48-B724-2007B49628FA}"/>
+    <workbookView windowHeight="16940" windowWidth="27640" xWindow="16300" xr2:uid="{B070CAB0-29B0-1E48-B724-2007B49628FA}" yWindow="2700"/>
   </bookViews>
   <sheets>
-    <sheet name="TableSchema" sheetId="1" r:id="rId1"/>
-    <sheet name="QueryTemplate" sheetId="2" r:id="rId2"/>
-    <sheet name="Table1" sheetId="3" r:id="rId3"/>
+    <sheet name="TableSchema" r:id="rId1" sheetId="1"/>
+    <sheet name="QueryTemplate" r:id="rId2" sheetId="2"/>
+    <sheet name="Table1" r:id="rId3" sheetId="3"/>
+    <sheet name="Data" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>col1</t>
   </si>
@@ -77,12 +78,76 @@
   </si>
   <si>
     <t>col6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>7.03</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>8.03</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>9.03</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>10.06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -106,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -129,24 +194,466 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="30">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -158,15 +665,42 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table1" headerRowBorderDxfId="16" headerRowDxfId="12" id="1" mc:Ignorable="xr xr3" name="Table1" ref="B3:C9" tableBorderDxfId="17" totalsRowBorderDxfId="15" totalsRowShown="0" xr:uid="{18445154-F4B3-D547-9CEC-6E41CF4831CF}">
+  <autoFilter ref="B3:C9" xr:uid="{18445154-F4B3-D547-9CEC-6E41CF4831CF}"/>
+  <tableColumns count="2">
+    <tableColumn dataDxfId="14" id="1" name="Column Name" xr3:uid="{5A1F5E39-7036-8D49-AB74-FA0DBA64BFFD}"/>
+    <tableColumn dataDxfId="13" id="2" name="Type" xr3:uid="{33CF3B5F-A7BF-C843-AD10-77B6FFAC8E85}"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="1" displayName="Table2" headerRowBorderDxfId="10" headerRowDxfId="0" id="2" mc:Ignorable="xr xr3" name="Table2" ref="B3:H8" tableBorderDxfId="11" totalsRowBorderDxfId="9" totalsRowShown="0" xr:uid="{1D0FFA7F-7DA9-724C-B45B-9B3B656FBCA4}">
+  <autoFilter ref="B3:H8" xr:uid="{1D0FFA7F-7DA9-724C-B45B-9B3B656FBCA4}"/>
+  <tableColumns count="7">
+    <tableColumn dataDxfId="8" id="1" name="QueryTemplate" xr3:uid="{BCBFF39D-F8EE-FB4A-9663-295F85FEC319}"/>
+    <tableColumn dataDxfId="7" id="2" name="col1" xr3:uid="{36DE5603-B39C-B24E-A335-ADADF710349A}"/>
+    <tableColumn dataDxfId="6" id="3" name="col2" xr3:uid="{F667053C-0B9A-EE4E-94A6-058070DFA44F}"/>
+    <tableColumn dataDxfId="5" id="4" name="col3" xr3:uid="{A1B6C63C-A9AD-374E-BFC1-77E97FD26494}"/>
+    <tableColumn dataDxfId="4" id="5" name="col4" xr3:uid="{A626D9AC-E0DC-8C44-920B-C23E5E4A0422}"/>
+    <tableColumn dataDxfId="3" id="6" name="col5" xr3:uid="{EB858D0B-136A-3145-A25E-B2EDB9A06486}"/>
+    <tableColumn dataDxfId="2" id="7" name="col6" xr3:uid="{BC9C8CFC-3C12-DF49-9146-FAA384F36C04}"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -201,7 +735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -253,7 +787,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -364,21 +898,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -395,7 +929,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -447,226 +981,445 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2395513-0369-7445-AF2F-A248C4C2C245}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2395513-0369-7445-AF2F-A248C4C2C245}">
+  <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="15.83203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7FDD77-73C7-C349-B46D-9153C1E493BB}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7FDD77-73C7-C349-B46D-9153C1E493BB}">
+  <dimension ref="B3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="16.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D4405E-6490-7540-8653-977CD177E976}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D4405E-6490-7540-8653-977CD177E976}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="C1" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="D1" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="F1" t="s" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="C2" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="F2" t="s" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="C3" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="F3" t="s" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="C4" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="F4" t="s" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C5" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="F5" t="s" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>601.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="C6" t="s" s="20">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>605.0</v>
+      </c>
+      <c r="F6" t="s" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>701.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="C7" t="s" s="22">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="F7" t="s" s="23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>801.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>802.0</v>
+      </c>
+      <c r="C8" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>804.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>805.0</v>
+      </c>
+      <c r="F8" t="s" s="25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>901.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>904.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>905.0</v>
+      </c>
+      <c r="F9" t="s" s="27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1002.0</v>
+      </c>
+      <c r="C10" t="s" s="28">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1005.0</v>
+      </c>
+      <c r="F10" t="s" s="29">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/profile2/Table1.xlsx
+++ b/src/main/resources/profile2/Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/apps/Intellij-projects/widequery-example-repo/src/main/resources/profile2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjay/intellij/widequery-example-repo/src/main/resources/profile2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C707EE99-42C0-4647-A9A6-0C69E4D8A6EB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C111E442-1E85-6B42-95B2-C6B5984BCF9A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="16940" windowWidth="27640" xWindow="16300" xr2:uid="{B070CAB0-29B0-1E48-B724-2007B49628FA}" yWindow="2700"/>
+    <workbookView activeTab="2" windowHeight="16940" windowWidth="27640" xWindow="16300" xr2:uid="{B070CAB0-29B0-1E48-B724-2007B49628FA}" yWindow="2700"/>
   </bookViews>
   <sheets>
     <sheet name="TableSchema" r:id="rId1" sheetId="1"/>
@@ -389,6 +389,168 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -409,109 +571,11 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
       <border diagonalDown="0" diagonalUp="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-      <border diagonalDown="0" diagonalUp="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-      <border diagonalDown="0" diagonalUp="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-      <border diagonalDown="0" diagonalUp="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-      <border diagonalDown="0" diagonalUp="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-      <border diagonalDown="0" diagonalUp="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -548,13 +612,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -564,6 +621,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -586,70 +650,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-      <border diagonalDown="0" diagonalUp="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-      <border diagonalDown="0" diagonalUp="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -666,34 +666,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table1" headerRowBorderDxfId="16" headerRowDxfId="12" id="1" mc:Ignorable="xr xr3" name="Table1" ref="B3:C9" tableBorderDxfId="17" totalsRowBorderDxfId="15" totalsRowShown="0" xr:uid="{18445154-F4B3-D547-9CEC-6E41CF4831CF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table1" headerRowBorderDxfId="16" headerRowDxfId="17" id="1" mc:Ignorable="xr xr3" name="Table1" ref="B3:C9" tableBorderDxfId="15" totalsRowBorderDxfId="14" totalsRowShown="0" xr:uid="{18445154-F4B3-D547-9CEC-6E41CF4831CF}">
   <autoFilter ref="B3:C9" xr:uid="{18445154-F4B3-D547-9CEC-6E41CF4831CF}"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="14" id="1" name="Column Name" xr3:uid="{5A1F5E39-7036-8D49-AB74-FA0DBA64BFFD}"/>
-    <tableColumn dataDxfId="13" id="2" name="Type" xr3:uid="{33CF3B5F-A7BF-C843-AD10-77B6FFAC8E85}"/>
+    <tableColumn dataDxfId="13" id="1" name="Column Name" xr3:uid="{5A1F5E39-7036-8D49-AB74-FA0DBA64BFFD}"/>
+    <tableColumn dataDxfId="12" id="2" name="Type" xr3:uid="{33CF3B5F-A7BF-C843-AD10-77B6FFAC8E85}"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="1" displayName="Table2" headerRowBorderDxfId="10" headerRowDxfId="0" id="2" mc:Ignorable="xr xr3" name="Table2" ref="B3:H8" tableBorderDxfId="11" totalsRowBorderDxfId="9" totalsRowShown="0" xr:uid="{1D0FFA7F-7DA9-724C-B45B-9B3B656FBCA4}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="9" displayName="Table2" headerRowBorderDxfId="10" headerRowDxfId="11" id="2" mc:Ignorable="xr xr3" name="Table2" ref="B3:H8" tableBorderDxfId="8" totalsRowBorderDxfId="7" totalsRowShown="0" xr:uid="{1D0FFA7F-7DA9-724C-B45B-9B3B656FBCA4}">
   <autoFilter ref="B3:H8" xr:uid="{1D0FFA7F-7DA9-724C-B45B-9B3B656FBCA4}"/>
   <tableColumns count="7">
-    <tableColumn dataDxfId="8" id="1" name="QueryTemplate" xr3:uid="{BCBFF39D-F8EE-FB4A-9663-295F85FEC319}"/>
-    <tableColumn dataDxfId="7" id="2" name="col1" xr3:uid="{36DE5603-B39C-B24E-A335-ADADF710349A}"/>
-    <tableColumn dataDxfId="6" id="3" name="col2" xr3:uid="{F667053C-0B9A-EE4E-94A6-058070DFA44F}"/>
-    <tableColumn dataDxfId="5" id="4" name="col3" xr3:uid="{A1B6C63C-A9AD-374E-BFC1-77E97FD26494}"/>
-    <tableColumn dataDxfId="4" id="5" name="col4" xr3:uid="{A626D9AC-E0DC-8C44-920B-C23E5E4A0422}"/>
-    <tableColumn dataDxfId="3" id="6" name="col5" xr3:uid="{EB858D0B-136A-3145-A25E-B2EDB9A06486}"/>
-    <tableColumn dataDxfId="2" id="7" name="col6" xr3:uid="{BC9C8CFC-3C12-DF49-9146-FAA384F36C04}"/>
+    <tableColumn dataDxfId="6" id="1" name="QueryTemplate" xr3:uid="{BCBFF39D-F8EE-FB4A-9663-295F85FEC319}"/>
+    <tableColumn dataDxfId="5" id="2" name="col1" xr3:uid="{36DE5603-B39C-B24E-A335-ADADF710349A}"/>
+    <tableColumn dataDxfId="4" id="3" name="col2" xr3:uid="{F667053C-0B9A-EE4E-94A6-058070DFA44F}"/>
+    <tableColumn dataDxfId="3" id="4" name="col3" xr3:uid="{A1B6C63C-A9AD-374E-BFC1-77E97FD26494}"/>
+    <tableColumn dataDxfId="2" id="5" name="col4" xr3:uid="{A626D9AC-E0DC-8C44-920B-C23E5E4A0422}"/>
+    <tableColumn dataDxfId="1" id="6" name="col5" xr3:uid="{EB858D0B-136A-3145-A25E-B2EDB9A06486}"/>
+    <tableColumn dataDxfId="0" id="7" name="col6" xr3:uid="{BC9C8CFC-3C12-DF49-9146-FAA384F36C04}"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -981,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme 2013 - 2022" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2395513-0369-7445-AF2F-A248C4C2C245}">
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1203,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D4405E-6490-7540-8653-977CD177E976}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
